--- a/biology/Médecine/1559_en_santé_et_médecine/1559_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1559_en_santé_et_médecine/1559_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1559_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1559_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1559 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1559_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1559_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>30 juin-10 juillet : Le roi de France Henri II, blessé à l'œil au cours d'un tournoi, agonise et meurt à Paris malgré les soins de Vésale[1], mais sans doute pas d'Ambroise Paré, contrairement à l'opinion reçue[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30 juin-10 juillet : Le roi de France Henri II, blessé à l'œil au cours d'un tournoi, agonise et meurt à Paris malgré les soins de Vésale, mais sans doute pas d'Ambroise Paré, contrairement à l'opinion reçue.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1559_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1559_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sous le titre d'Anatomia del corpo humano, Juan Valverde de Amusco (en) (c.1525-c.1587) publie la traduction italienne de son Historia de la composicion del cuerpo humano, parue en espagnol en 1556[3],[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous le titre d'Anatomia del corpo humano, Juan Valverde de Amusco (en) (c.1525-c.1587) publie la traduction italienne de son Historia de la composicion del cuerpo humano, parue en espagnol en 1556,.</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1559_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1559_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,10 +587,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jacques d'Amboise (mort en 1606), « chirurgien juré au Châtelet comme son père, puis chirurgien d'Henri III », et enfin, ayant pris ses grades à la Faculté, médecin d'Henri IV[5], mais n'ayant sans doute pas été nommé lecteur royal, contrairement à ce qu'on a pu penser[6].
-Jean Storms (mort en 1650 ou 1646), mathématicien, médecin et poète belge[7],[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jacques d'Amboise (mort en 1606), « chirurgien juré au Châtelet comme son père, puis chirurgien d'Henri III », et enfin, ayant pris ses grades à la Faculté, médecin d'Henri IV, mais n'ayant sans doute pas été nommé lecteur royal, contrairement à ce qu'on a pu penser.
+Jean Storms (mort en 1650 ou 1646), mathématicien, médecin et poète belge,.</t>
         </is>
       </c>
     </row>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1559_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1559_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,12 +620,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10 novembre : Jacques Milich (né en 1501), professeur de médecine et de mathématiques à Wittemberg, auteur de nombreux ouvrages sur l'art de guérir[9].
-Oddo de Oddis (it) (né en 1478), praticien à Venise, professeur à Padoue, auteur de divers ouvrages de médecine[9].
-Adrien L'Allemant (né en 1527), reçu docteur en médecine à Paris, commentateur d'Hippocrate et auteur d'une Dialectique en français pour les barbiers et chirurgiens[9].
-Realdo Colombo (né entre 1510 et 1520[10] (vers 1516[11] ?)), anatomiste lombard.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10 novembre : Jacques Milich (né en 1501), professeur de médecine et de mathématiques à Wittemberg, auteur de nombreux ouvrages sur l'art de guérir.
+Oddo de Oddis (it) (né en 1478), praticien à Venise, professeur à Padoue, auteur de divers ouvrages de médecine.
+Adrien L'Allemant (né en 1527), reçu docteur en médecine à Paris, commentateur d'Hippocrate et auteur d'une Dialectique en français pour les barbiers et chirurgiens.
+Realdo Colombo (né entre 1510 et 1520 (vers 1516 ?)), anatomiste lombard.
 </t>
         </is>
       </c>
